--- a/ДОКУМЕНТЫ/ПОДРОБНАЯ_ДОРОЖНАЯ_КАРТА_ПЛАНЫ_С_ЦЕНОЙ.xlsx
+++ b/ДОКУМЕНТЫ/ПОДРОБНАЯ_ДОРОЖНАЯ_КАРТА_ПЛАНЫ_С_ЦЕНОЙ.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SHIWA\Documents\GitHub\QUANTUM\ДОКУМЕНТЫ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9F30366-8A78-4AEF-AAAF-8A25006BFD6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDF12984-64B6-49A6-B382-2D04F3937CA9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="138">
   <si>
     <t>Наименование</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>Cam-модуль B2C</t>
-  </si>
-  <si>
-    <t>более 10 000 000</t>
   </si>
   <si>
     <t>более 1 000</t>
@@ -330,6 +327,195 @@
     </r>
   </si>
   <si>
+    <t>Quantum-PCI Mini</t>
+  </si>
+  <si>
+    <t>Разработано КД просчитано производство. Изделие функционирует без проблем. Требуется изготовление контрольной партии.</t>
+  </si>
+  <si>
+    <t>Готовы к массовому производству, не учитывая программное обеспечение</t>
+  </si>
+  <si>
+    <t>При запросе то ОКР 6-8 месяцев 22 млн.</t>
+  </si>
+  <si>
+    <t>РТРС, МТС,</t>
+  </si>
+  <si>
+    <t>Разработаны все составляющие системы. Изделие на тестирование. Готова новая версия требуется изготовление тестовой партии. Сокрее всего тестовая версия будет запущена на партии IX датацентру.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cam-модуль с сервером времени </t>
+  </si>
+  <si>
+    <t>Разработки преоставновлены</t>
+  </si>
+  <si>
+    <t>100-200</t>
+  </si>
+  <si>
+    <t>Grand-Mini v1</t>
+  </si>
+  <si>
+    <t>Grand-Mini v2</t>
+  </si>
+  <si>
+    <t>Ведется разработка</t>
+  </si>
+  <si>
+    <t>GNSS приемники Прецезионный</t>
+  </si>
+  <si>
+    <t>GNSS антенна (покупная с доработками)</t>
+  </si>
+  <si>
+    <t>МТС/Куба</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Первая версия изделия функционирует согласно заданным требованиям. Ведется разработка второй версии, так же требуется разработка корпуса и тестирование драйверов. </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 35 000-75 000</t>
+  </si>
+  <si>
+    <t>ДОРОЖНАЯ КАРТА /СТАТУС РАЗРАБОТОК</t>
+  </si>
+  <si>
+    <t>№п/п</t>
+  </si>
+  <si>
+    <t>Финальная версия конец четвертого квартала 2025.</t>
+  </si>
+  <si>
+    <t>Финальная версия конец 3 квартала 2025. Продажы не раньше 4 квартала</t>
+  </si>
+  <si>
+    <t>Финальная версия конец 3 квартала 2025. Программное обечпесение пока импортозависимо. Продажы не раньше 4 квартала</t>
+  </si>
+  <si>
+    <t>Ведется разработка. Более защещенная версия для жесткого тропического климата. Требуются затраты на изготовление опытной партии.</t>
+  </si>
+  <si>
+    <t>Финальная версия конец третьего квартала 2025. Требуются затраты на изготовление опытной партии</t>
+  </si>
+  <si>
+    <t>В составе Qantum-PCI, IX</t>
+  </si>
+  <si>
+    <t>В составе Qantum-PCI</t>
+  </si>
+  <si>
+    <t>Сетевая карта времени с поддержкой PPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Финальная версия конец третьего квартала 2025. Требуются затраты на изготовление опытной партии. Программное обеспечение и драйвер реализованы. </t>
+  </si>
+  <si>
+    <t>При запросе то ОКР 6-8 месяцев при стоимости 16,5 млн.</t>
+  </si>
+  <si>
+    <t>При запросе то ОКР 53,3 млн. + стоимость изготовления опытных образца)</t>
+  </si>
+  <si>
+    <t>При запросе то ОКР 58 млн. (+10 опытных образцов)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разработана первая верия требуется изготвление опытной партии. </t>
+  </si>
+  <si>
+    <t>10-12 месяцев 22 млн.</t>
+  </si>
+  <si>
+    <t>Атомный стандарт частоты для  малых спутников на НГСО</t>
+  </si>
+  <si>
+    <t xml:space="preserve">6-8 месяцев 25 млн. </t>
+  </si>
+  <si>
+    <t>Начало 3 квартала 2025 года</t>
+  </si>
+  <si>
+    <t>более 300</t>
+  </si>
+  <si>
+    <t>МТС/ IX</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> МТС</t>
+  </si>
+  <si>
+    <t>РТРС, МТС, МО РФ, Куба</t>
+  </si>
+  <si>
+    <t>DVB приемник с выводом 1 PPS</t>
+  </si>
+  <si>
+    <t>Станция противодействия БПЛА, на новых принципах подавления частот</t>
+  </si>
+  <si>
+    <t>Текущий статус</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Завершена </t>
+  </si>
+  <si>
+    <t>Ведется разработка/ Нехватка конструктора</t>
+  </si>
+  <si>
+    <t>Заморожен</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Разработана концепция </t>
+  </si>
+  <si>
+    <t>Разработан прототип</t>
+  </si>
+  <si>
+    <t>145 000 – 225 000</t>
+  </si>
+  <si>
+    <t>Закончена переработка РКД корпуса и всеми базовыми платами.</t>
+  </si>
+  <si>
+    <t>Схемотехника готова, необходимо написать софт на данный модуль и разработать под него корпус.</t>
+  </si>
+  <si>
+    <t>Прототипы драйвера разработан, система мониторинга  требует разработки. Не со всеми версиями серверов работает корректно. Требуются дополнительные отладки с железом. Необходима закупка линейки серверов для отладки.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Полностью показали свою работоспособность при тестах на Кубе. Возможен выпуск версии 2, более надежного и точного изделия. </t>
+  </si>
+  <si>
+    <t>Плата сейчас модернизируется с целью поддержания всех версии наших генераторовю. Требуется разработка корпуса. Пока корпус в стадии разработки конструктором на фрилансе. Требуется команда для разработки программного обеспечения.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">35 000 </t>
+  </si>
+  <si>
+    <t>Главная проблема программное обеспечение, и маленкий объем заказываемых модулей порядка сотни. При разработке ПО потребуется взаиможействие с ТАФИ и ГП КС.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Требуется ОКР в виду сложности разработки ПО. Аппаратная часть на 60 % готова</t>
+  </si>
+  <si>
+    <t>более 200</t>
+  </si>
+  <si>
+    <t>более 100</t>
+  </si>
+  <si>
+    <t>более 500</t>
+  </si>
+  <si>
+    <t>более 80</t>
+  </si>
+  <si>
+    <t>более 1 000 000</t>
+  </si>
+  <si>
+    <t>более 1000</t>
+  </si>
+  <si>
     <r>
       <t xml:space="preserve"> </t>
     </r>
@@ -342,179 +528,8 @@
         <family val="1"/>
         <charset val="204"/>
       </rPr>
-      <t>Quantum-PCI</t>
+      <t>Quantum-PCI (Флагман)</t>
     </r>
-  </si>
-  <si>
-    <t>Quantum-PCI Mini</t>
-  </si>
-  <si>
-    <t>Разработано КД просчитано производство. Изделие функционирует без проблем. Требуется изготовление контрольной партии.</t>
-  </si>
-  <si>
-    <t>Готовы к массовому производству, не учитывая программное обеспечение</t>
-  </si>
-  <si>
-    <t>При запросе то ОКР 6-8 месяцев 22 млн.</t>
-  </si>
-  <si>
-    <t>РТРС, МТС,</t>
-  </si>
-  <si>
-    <t>Разработаны все составляющие системы. Изделие на тестирование. Готова новая версия требуется изготовление тестовой партии. Сокрее всего тестовая версия будет запущена на партии IX датацентру.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Cam-модуль с сервером времени </t>
-  </si>
-  <si>
-    <t>Разработки преоставновлены</t>
-  </si>
-  <si>
-    <t>100-200</t>
-  </si>
-  <si>
-    <t>Grand-Mini v1</t>
-  </si>
-  <si>
-    <t>Grand-Mini v2</t>
-  </si>
-  <si>
-    <t>Ведется разработка</t>
-  </si>
-  <si>
-    <t>GNSS приемники Прецезионный</t>
-  </si>
-  <si>
-    <t>GNSS антенна (покупная с доработками)</t>
-  </si>
-  <si>
-    <t>МТС/Куба</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Первая версия изделия функционирует согласно заданным требованиям. Ведется разработка второй версии, так же требуется разработка корпуса и тестирование драйверов. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 35 000-75 000</t>
-  </si>
-  <si>
-    <t>ДОРОЖНАЯ КАРТА /СТАТУС РАЗРАБОТОК</t>
-  </si>
-  <si>
-    <t>№п/п</t>
-  </si>
-  <si>
-    <t>Финальная версия конец четвертого квартала 2025.</t>
-  </si>
-  <si>
-    <t>Финальная версия конец 3 квартала 2025. Продажы не раньше 4 квартала</t>
-  </si>
-  <si>
-    <t>Финальная версия конец 3 квартала 2025. Программное обечпесение пока импортозависимо. Продажы не раньше 4 квартала</t>
-  </si>
-  <si>
-    <t>Ведется разработка. Более защещенная версия для жесткого тропического климата. Требуются затраты на изготовление опытной партии.</t>
-  </si>
-  <si>
-    <t>Финальная версия конец третьего квартала 2025. Требуются затраты на изготовление опытной партии</t>
-  </si>
-  <si>
-    <t>В составе Qantum-PCI, IX</t>
-  </si>
-  <si>
-    <t>В составе Qantum-PCI</t>
-  </si>
-  <si>
-    <t>Сетевая карта времени с поддержкой PPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Финальная версия конец третьего квартала 2025. Требуются затраты на изготовление опытной партии. Программное обеспечение и драйвер реализованы. </t>
-  </si>
-  <si>
-    <t>При запросе то ОКР 6-8 месяцев при стоимости 16,5 млн.</t>
-  </si>
-  <si>
-    <t>При запросе то ОКР 53,3 млн. + стоимость изготовления опытных образца)</t>
-  </si>
-  <si>
-    <t>При запросе то ОКР 58 млн. (+10 опытных образцов)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разработана первая верия требуется изготвление опытной партии. </t>
-  </si>
-  <si>
-    <t>10-12 месяцев 22 млн.</t>
-  </si>
-  <si>
-    <t>Атомный стандарт частоты для  малых спутников на НГСО</t>
-  </si>
-  <si>
-    <t xml:space="preserve">6-8 месяцев 25 млн. </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Требуется ОКР в виду сложности разработки ПО</t>
-  </si>
-  <si>
-    <t>Начало 3 квартала 2025 года</t>
-  </si>
-  <si>
-    <t>более 300</t>
-  </si>
-  <si>
-    <t>МТС/ IX</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> МТС</t>
-  </si>
-  <si>
-    <t>РТРС, МТС, МО РФ, Куба</t>
-  </si>
-  <si>
-    <t>DVB приемник с выводом 1 PPS</t>
-  </si>
-  <si>
-    <t>Станция противодействия БПЛА, на новых принципах подавления частот</t>
-  </si>
-  <si>
-    <t>Текущий статус</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Завершена </t>
-  </si>
-  <si>
-    <t>Ведется разработка/ Нехватка конструктора</t>
-  </si>
-  <si>
-    <t>Заморожен</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Разработана концепция </t>
-  </si>
-  <si>
-    <t>Разработан прототип</t>
-  </si>
-  <si>
-    <t>145 000 – 225 000</t>
-  </si>
-  <si>
-    <t>Закончена переработка РКД корпуса и всеми базовыми платами.</t>
-  </si>
-  <si>
-    <t>Схемотехника готова, необходимо написать софт на данный модуль и разработать под него корпус.</t>
-  </si>
-  <si>
-    <t>Прототипы драйвера разработан, система мониторинга  требует разработки. Не со всеми версиями серверов работает корректно. Требуются дополнительные отладки с железом. Необходима закупка линейки серверов для отладки.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Полностью показали свою работоспособность при тестах на Кубе. Возможен выпуск версии 2, более надежного и точного изделия. </t>
-  </si>
-  <si>
-    <t>Плата сейчас модернизируется с целью поддержания всех версии наших генераторовю. Требуется разработка корпуса. Пока корпус в стадии разработки конструктором на фрилансе. Требуется команда для разработки программного обеспечения.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">35 000 </t>
-  </si>
-  <si>
-    <t>Главная проблема программное обеспечение, и маленкий объем заказываемых модулей порядка сотни. При разработке ПО потребуется взаиможействие с ТАФИ и ГП КС.</t>
   </si>
 </sst>
 </file>
@@ -710,7 +725,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -780,9 +795,6 @@
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1064,10 +1076,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:L26"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1088,7 +1100,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="20.25" x14ac:dyDescent="0.25">
       <c r="B1" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C1" s="22"/>
       <c r="D1" s="22"/>
@@ -1104,75 +1116,109 @@
       <c r="B2" s="6"/>
       <c r="C2" s="6"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-    </row>
-    <row r="4" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+    <row r="3" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D3" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="E3" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="L3" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A4" s="21">
+        <v>1</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C4" s="3" t="s">
         <v>94</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I4" s="2" t="s">
+      <c r="D4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="L4" s="13" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A5" s="21">
         <v>2</v>
       </c>
-      <c r="J4" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="L4" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A5" s="21">
-        <v>1</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>75</v>
+      <c r="B5" s="4" t="s">
+        <v>73</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F5" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G5" s="3" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>36</v>
+        <v>134</v>
       </c>
       <c r="I5" s="3" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="J5" s="3" t="s">
         <v>5</v>
@@ -1181,527 +1227,527 @@
         <v>67</v>
       </c>
       <c r="L5" s="13" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>74</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>97</v>
+        <v>8</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>87</v>
+        <v>117</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G6" s="3" t="s">
-        <v>11</v>
+        <v>111</v>
       </c>
       <c r="H6" s="3" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="I6" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J6" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>68</v>
+        <v>99</v>
+      </c>
+      <c r="J6" s="9">
+        <v>10000</v>
+      </c>
+      <c r="K6" s="9">
+        <v>28000</v>
       </c>
       <c r="L6" s="13" t="s">
-        <v>128</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A7" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>6</v>
+        <v>86</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G7" s="3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="H7" s="3" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="I7" s="3" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="J7" s="9">
-        <v>10000</v>
+        <v>21000</v>
       </c>
       <c r="K7" s="9">
-        <v>28000</v>
+        <v>65000</v>
       </c>
       <c r="L7" s="13" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="21">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>8</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G8" s="3" t="s">
-        <v>114</v>
+        <v>11</v>
       </c>
       <c r="H8" s="3" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="I8" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="J8" s="9">
-        <v>21000</v>
-      </c>
-      <c r="K8" s="9">
-        <v>65000</v>
+        <v>31</v>
+      </c>
+      <c r="J8" s="3">
+        <v>7500</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>10</v>
       </c>
       <c r="L8" s="13" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" ht="35.450000000000003" customHeight="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A9" s="21">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>8</v>
+        <v>76</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G9" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H9" s="3" t="s">
-        <v>36</v>
+        <v>132</v>
       </c>
       <c r="I9" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J9" s="3">
-        <v>7500</v>
+        <v>88</v>
+      </c>
+      <c r="J9" s="9">
+        <v>85000</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>10</v>
+        <v>68</v>
       </c>
       <c r="L9" s="13" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A10" s="21">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>78</v>
+        <v>96</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>87</v>
+        <v>118</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F10" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G10" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H10" s="3" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="I10" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="J10" s="9">
+        <v>95000</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="L10" s="13" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A11" s="21">
+        <v>8</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="I11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="J11" s="3">
+        <v>11000</v>
+      </c>
+      <c r="K11" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="J10" s="9">
-        <v>85000</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="L10" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A11" s="21">
-        <v>7</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G11" s="3" t="s">
+      <c r="L11" s="13" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A12" s="21">
+        <v>9</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H11" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="J11" s="9">
-        <v>95000</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="L11" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A12" s="21">
-        <v>8</v>
-      </c>
-      <c r="B12" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F12" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>114</v>
-      </c>
       <c r="H12" s="3" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="I12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="J12" s="3">
-        <v>11000</v>
+        <v>23</v>
+      </c>
+      <c r="J12" s="9">
+        <v>75000</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>92</v>
+        <v>71</v>
       </c>
       <c r="L12" s="13" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" ht="75" x14ac:dyDescent="0.25">
       <c r="A13" s="21">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>95</v>
+        <v>101</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="G13" s="3" t="s">
         <v>11</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>36</v>
+        <v>131</v>
       </c>
       <c r="I13" s="3" t="s">
         <v>23</v>
       </c>
       <c r="J13" s="9">
-        <v>75000</v>
+        <v>12000</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>72</v>
+        <v>128</v>
       </c>
       <c r="L13" s="13" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="21">
+        <v>11</v>
+      </c>
+      <c r="B14" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G14" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H14" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="I14" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="J14" s="9">
+        <v>70000</v>
+      </c>
+      <c r="K14" s="9">
+        <v>170000</v>
+      </c>
+      <c r="L14" s="13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A15" s="21">
+        <v>12</v>
+      </c>
+      <c r="B15" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="I15" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="J15" s="9">
+        <v>650000</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="L15" s="13" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="21">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I16" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="J16" s="9">
+        <v>65000</v>
+      </c>
+      <c r="K16" s="9">
+        <v>180000</v>
+      </c>
+      <c r="L16" s="13" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="21">
+        <v>14</v>
+      </c>
+      <c r="B17" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G17" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="I17" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J17" s="9">
+        <v>180000</v>
+      </c>
+      <c r="K17" s="9">
+        <v>450000</v>
+      </c>
+      <c r="L17" s="13" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="45" x14ac:dyDescent="0.25">
+      <c r="A18" s="21">
+        <v>15</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" s="3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="14" spans="1:12" ht="75" x14ac:dyDescent="0.25">
-      <c r="A14" s="21">
-        <v>10</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>102</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G14" s="3" t="s">
+      <c r="D18" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G18" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="H14" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I14" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="J14" s="9">
-        <v>12000</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="L14" s="13" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A15" s="21">
-        <v>11</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D15" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H15" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I15" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="J15" s="9">
-        <v>70000</v>
-      </c>
-      <c r="K15" s="9">
-        <v>170000</v>
-      </c>
-      <c r="L15" s="13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A16" s="21">
-        <v>12</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D16" s="24" t="s">
-        <v>123</v>
-      </c>
-      <c r="E16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I16" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J16" s="9">
-        <v>650000</v>
-      </c>
-      <c r="K16" s="3" t="s">
+      <c r="H18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="K18" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L18" s="14" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+      <c r="A19" s="21">
         <v>16</v>
       </c>
-      <c r="L16" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="21">
-        <v>13</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="C17" s="3" t="s">
+      <c r="B19" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" s="3" t="s">
         <v>106</v>
       </c>
-      <c r="D17" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="H17" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="J17" s="9">
-        <v>65000</v>
-      </c>
-      <c r="K17" s="9">
-        <v>180000</v>
-      </c>
-      <c r="L17" s="13" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A18" s="21">
-        <v>14</v>
-      </c>
-      <c r="B18" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>124</v>
-      </c>
-      <c r="E18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F18" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="H18" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I18" s="3" t="s">
+      <c r="D19" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G19" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="J18" s="9">
-        <v>180000</v>
-      </c>
-      <c r="K18" s="9">
-        <v>450000</v>
-      </c>
-      <c r="L18" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A19" s="21">
-        <v>15</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D19" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>11</v>
-      </c>
       <c r="H19" s="3" t="s">
-        <v>36</v>
+        <v>110</v>
       </c>
       <c r="I19" s="11" t="s">
         <v>19</v>
@@ -1713,185 +1759,185 @@
         <v>20</v>
       </c>
       <c r="L19" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12" ht="60" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A20" s="21">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>108</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G20" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="I20" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="F20" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H20" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="I20" s="11" t="s">
-        <v>19</v>
-      </c>
       <c r="J20" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K20" s="3" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
       <c r="L20" s="14" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
       <c r="A21" s="21">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>109</v>
+        <v>115</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>110</v>
+        <v>44</v>
       </c>
       <c r="D21" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H21" s="15" t="s">
-        <v>43</v>
+        <v>51</v>
+      </c>
+      <c r="G21" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="I21" s="11" t="s">
-        <v>53</v>
+        <v>22</v>
       </c>
       <c r="J21" s="3" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="K21" s="3" t="s">
-        <v>26</v>
+        <v>70</v>
       </c>
       <c r="L21" s="14" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="42.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:12" ht="30" x14ac:dyDescent="0.25">
       <c r="A22" s="21">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="D22" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="H22" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="G22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="H22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="K22" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="21">
+        <v>23</v>
+      </c>
+      <c r="B23" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="E23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G23" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="I22" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K22" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="L22" s="14" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" ht="30" x14ac:dyDescent="0.25">
-      <c r="A23" s="21">
-        <v>22</v>
-      </c>
-      <c r="B23" s="5" t="s">
-        <v>117</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E23" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="F23" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="G23" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="H23" s="15" t="s">
-        <v>43</v>
+      <c r="H23" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="I23" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="J23" s="15" t="s">
-        <v>43</v>
-      </c>
-      <c r="K23" s="15" t="s">
-        <v>43</v>
+        <v>36</v>
+      </c>
+      <c r="J23" s="3">
+        <v>2200</v>
+      </c>
+      <c r="K23" s="9">
+        <v>25000</v>
       </c>
       <c r="L23" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" ht="24" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="21">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F24" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="G24" s="11" t="s">
         <v>37</v>
       </c>
       <c r="H24" s="3" t="s">
-        <v>39</v>
+        <v>135</v>
       </c>
       <c r="I24" s="11" t="s">
         <v>37</v>
@@ -1900,86 +1946,48 @@
         <v>2200</v>
       </c>
       <c r="K24" s="9">
-        <v>25000</v>
+        <v>3500</v>
       </c>
       <c r="L24" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" ht="28.15" customHeight="1" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="45" x14ac:dyDescent="0.25">
       <c r="A25" s="21">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>34</v>
+        <v>80</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>112</v>
+        <v>130</v>
       </c>
       <c r="D25" s="3" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F25" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G25" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>35</v>
+        <v>51</v>
+      </c>
+      <c r="G25" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="H25" s="21" t="s">
+        <v>82</v>
       </c>
       <c r="I25" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="3">
-        <v>2200</v>
-      </c>
-      <c r="K25" s="9">
-        <v>3500</v>
+        <v>36</v>
+      </c>
+      <c r="J25" s="21">
+        <v>15000</v>
+      </c>
+      <c r="K25" s="21">
+        <v>135000</v>
       </c>
       <c r="L25" s="14" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" ht="45" x14ac:dyDescent="0.25">
-      <c r="A26" s="21">
-        <v>25</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="E26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="F26" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="G26" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="H26" s="21" t="s">
-        <v>84</v>
-      </c>
-      <c r="I26" s="11" t="s">
-        <v>37</v>
-      </c>
-      <c r="J26" s="21">
-        <v>15000</v>
-      </c>
-      <c r="K26" s="21">
-        <v>135000</v>
-      </c>
-      <c r="L26" s="14" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -2010,7 +2018,7 @@
   <sheetData>
     <row r="2" spans="1:5" ht="57.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
@@ -2028,19 +2036,19 @@
     </row>
     <row r="6" spans="1:5" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="B6" s="18" t="s">
         <v>55</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="C6" s="18" t="s">
         <v>56</v>
       </c>
-      <c r="C6" s="18" t="s">
+      <c r="D6" s="18" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="18" t="s">
+      <c r="E6" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="64.150000000000006" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2048,7 +2056,7 @@
         <v>1</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C7" s="20"/>
       <c r="D7" s="20"/>
@@ -2059,7 +2067,7 @@
         <v>2</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C8" s="20"/>
       <c r="D8" s="20"/>
@@ -2070,7 +2078,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C9" s="20"/>
       <c r="D9" s="20"/>
@@ -2081,7 +2089,7 @@
         <v>4</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C10" s="20"/>
       <c r="D10" s="20"/>
@@ -2092,7 +2100,7 @@
         <v>5</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C11" s="20"/>
       <c r="D11" s="20"/>
@@ -2103,7 +2111,7 @@
         <v>6</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C12" s="20"/>
       <c r="D12" s="20"/>
